--- a/Design/DataTable/MapGimmick.xlsx
+++ b/Design/DataTable/MapGimmick.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\백업파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B71B3D3-6940-4E6D-A0D9-6CB9A77E69EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E53A7-1F33-4EE4-9005-416728A0D912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="2532" windowWidth="17280" windowHeight="8880" xr2:uid="{D5FC1BAE-767F-4706-896C-9261480075CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5FC1BAE-767F-4706-896C-9261480075CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuffnNerf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Korean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버프, 디버프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +91,22 @@
   </si>
   <si>
     <t>Probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lanebuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격로버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExistedMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,19 +477,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1E615A-9486-4861-8A7A-82BD2A80CD21}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
     <col min="3" max="3" width="13.09765625" customWidth="1"/>
     <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,41 +499,47 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -535,16 +547,19 @@
       <c r="E3" s="2">
         <v>0.25</v>
       </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -552,16 +567,19 @@
       <c r="E4" s="2">
         <v>0.16666666666666666</v>
       </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -569,22 +587,28 @@
       <c r="E5" s="2">
         <v>0.14285714285714285</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" s="2">
         <v>0.1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/MapGimmick.xlsx
+++ b/Design/DataTable/MapGimmick.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E53A7-1F33-4EE4-9005-416728A0D912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36807E81-11A9-4322-8C6C-3C84CB1390B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5FC1BAE-767F-4706-896C-9261480075CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lanebuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격로버프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,14 @@
   </si>
   <si>
     <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapGimmickType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaneBuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,12 +484,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.09765625" customWidth="1"/>
     <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
@@ -508,7 +513,7 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -516,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -528,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -536,10 +541,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>

--- a/Design/DataTable/MapGimmick.xlsx
+++ b/Design/DataTable/MapGimmick.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36807E81-11A9-4322-8C6C-3C84CB1390B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FB391A-6277-42D4-8C9C-E06BC5FA9447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5FC1BAE-767F-4706-896C-9261480075CD}"/>
   </bookViews>
@@ -157,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,6 +165,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1E615A-9486-4861-8A7A-82BD2A80CD21}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -496,7 +499,7 @@
     <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -536,7 +539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -556,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -576,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -596,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -615,6 +618,9 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
